--- a/Project/DataTable/Excel/关卡配置表.xlsx
+++ b/Project/DataTable/Excel/关卡配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25080" windowHeight="7830"/>
+    <workbookView windowWidth="28710" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Copy" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>LevelType</t>
   </si>
   <si>
+    <t>LevelRequest</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t>关卡类型</t>
+  </si>
+  <si>
+    <t>需求等级</t>
   </si>
   <si>
     <t>图标</t>
@@ -240,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -673,10 +679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -685,30 +691,31 @@
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="14" width="17.875" customWidth="1"/>
-    <col min="15" max="15" width="9.25" customWidth="1"/>
-    <col min="16" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="12.875" customWidth="1"/>
-    <col min="21" max="21" width="17.875" customWidth="1"/>
-    <col min="22" max="22" width="12.875" customWidth="1"/>
-    <col min="23" max="23" width="17.875" customWidth="1"/>
-    <col min="24" max="24" width="12.875" customWidth="1"/>
-    <col min="25" max="25" width="54.875" customWidth="1"/>
-    <col min="26" max="16384" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="9.25" customWidth="1"/>
+    <col min="15" max="15" width="17.875" customWidth="1"/>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+    <col min="17" max="18" width="12.625" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="16" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
+    <col min="22" max="22" width="17.875" customWidth="1"/>
+    <col min="23" max="23" width="12.875" customWidth="1"/>
+    <col min="24" max="24" width="17.875" customWidth="1"/>
+    <col min="25" max="25" width="12.875" customWidth="1"/>
+    <col min="26" max="26" width="54.875" customWidth="1"/>
+    <col min="27" max="16384" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,239 +791,251 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="Z2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>10001</v>
       </c>
@@ -1024,76 +1043,79 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>101</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>100</v>
       </c>
       <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
         <v>340015</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>210033</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>440015</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>40015</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>61</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>18000</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
         <v>40</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
-        <v>54</v>
+      <c r="Z5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>10002</v>
       </c>
@@ -1101,76 +1123,79 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>101</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>340016</v>
+      </c>
+      <c r="N6">
+        <v>210034</v>
+      </c>
+      <c r="O6">
+        <v>440016</v>
+      </c>
+      <c r="P6">
+        <v>40016</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>61</v>
+      </c>
+      <c r="S6">
+        <v>18500</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>40</v>
+      </c>
+      <c r="X6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>101</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>100</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <v>340016</v>
-      </c>
-      <c r="M6">
-        <v>210034</v>
-      </c>
-      <c r="N6">
-        <v>440016</v>
-      </c>
-      <c r="O6">
-        <v>40016</v>
-      </c>
-      <c r="P6">
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <v>61</v>
-      </c>
-      <c r="R6">
-        <v>18500</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>40</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
-      <c r="X6">
+      <c r="Y6">
         <v>180</v>
       </c>
-      <c r="Y6" t="s">
-        <v>56</v>
+      <c r="Z6" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>10003</v>
       </c>
@@ -1178,76 +1203,79 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
+      <c r="H7">
         <v>101</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
       <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
         <v>340017</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>210035</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>440017</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>40017</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>61</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>19000</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
         <v>40</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
-        <v>58</v>
+      <c r="Z7" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>10004</v>
       </c>
@@ -1255,76 +1283,79 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
         <v>101</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>100</v>
       </c>
       <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
         <v>340018</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>210036</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>440018</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>40018</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>61</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>19500</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>40</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>180</v>
       </c>
-      <c r="Y8" t="s">
-        <v>60</v>
+      <c r="Z8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>10005</v>
       </c>
@@ -1332,76 +1363,79 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>101</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
       <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
         <v>340019</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>210037</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>440019</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>40019</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>61</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>20000</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
         <v>40</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>180</v>
       </c>
-      <c r="Y9" t="s">
-        <v>62</v>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>10006</v>
       </c>
@@ -1409,76 +1443,79 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>101</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
       <c r="J10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
         <v>340020</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>210038</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>440020</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>40020</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>5</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>61</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>20500</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
         <v>40</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>180</v>
       </c>
-      <c r="Y10" t="s">
-        <v>64</v>
+      <c r="Z10" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>10007</v>
       </c>
@@ -1486,76 +1523,79 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>101</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
         <v>340021</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>210039</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>440021</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>40021</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>61</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>21000</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>40</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>180</v>
       </c>
-      <c r="Y11" t="s">
-        <v>66</v>
+      <c r="Z11" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>10008</v>
       </c>
@@ -1563,76 +1603,79 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
         <v>101</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
       <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
         <v>340022</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>210041</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>440022</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>40022</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>61</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>21500</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
         <v>40</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>180</v>
       </c>
-      <c r="Y12" t="s">
-        <v>68</v>
+      <c r="Z12" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>10009</v>
       </c>
@@ -1640,76 +1683,79 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>101</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>100</v>
       </c>
       <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
         <v>340023</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>210042</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>440023</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>40023</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>5</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>61</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>22000</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
       <c r="T13">
         <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
         <v>40</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>2</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>180</v>
       </c>
-      <c r="Y13" t="s">
-        <v>70</v>
+      <c r="Z13" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>10010</v>
       </c>
@@ -1717,78 +1763,81 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
       <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>101</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
       <c r="J14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>100</v>
       </c>
       <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
         <v>340024</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>210043</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>440024</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>40024</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>10</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>61</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>22500</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
       <c r="T14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
         <v>40</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>180</v>
       </c>
-      <c r="Y14" t="s">
-        <v>72</v>
+      <c r="Z14" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3:Y3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3 G3:Z3">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/DataTable/Excel/关卡配置表.xlsx
+++ b/Project/DataTable/Excel/关卡配置表.xlsx
@@ -247,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -682,7 +682,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -1120,7 +1120,7 @@
         <v>10002</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
@@ -1200,7 +1200,7 @@
         <v>10003</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -1280,7 +1280,7 @@
         <v>10004</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>61</v>
@@ -1360,7 +1360,7 @@
         <v>10005</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -1440,7 +1440,7 @@
         <v>10006</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>65</v>
@@ -1520,7 +1520,7 @@
         <v>10007</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -1600,7 +1600,7 @@
         <v>10008</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1680,7 +1680,7 @@
         <v>10009</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>71</v>
@@ -1760,7 +1760,7 @@
         <v>10010</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>73</v>

--- a/Project/DataTable/Excel/关卡配置表.xlsx
+++ b/Project/DataTable/Excel/关卡配置表.xlsx
@@ -246,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -681,8 +681,8 @@
   <sheetPr/>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V6">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V9">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V10">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V14">
         <v>1</v>

--- a/Project/DataTable/Excel/关卡配置表.xlsx
+++ b/Project/DataTable/Excel/关卡配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="13050"/>
+    <workbookView windowWidth="28710" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Copy" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -681,8 +681,8 @@
   <sheetPr/>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25"/>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>501</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>502</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="F14">
         <v>4</v>
